--- a/data/trans_dic/P41C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Estudios-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.08962628520380007</v>
+        <v>0.07870296905864831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03807193748912725</v>
+        <v>0.04097647852518789</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.02820575698987546</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0324159944047489</v>
+        <v>0.03241599440474891</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02111352256008031</v>
+        <v>0.0218985130127416</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01802946203293138</v>
+        <v>0.01730680921473017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02237989418944155</v>
+        <v>0.02239175010413128</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05931394950278549</v>
+        <v>0.05921461432978378</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04357957504331646</v>
+        <v>0.04227496120046285</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04451972664006204</v>
+        <v>0.04493497818149114</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>0.07776018757985262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07181972930410475</v>
+        <v>0.07181972930410474</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02658350986740793</v>
+        <v>0.02547506279870574</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04840231133029063</v>
+        <v>0.04961532676911138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04692402677054181</v>
+        <v>0.04859061763568599</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1328825307323029</v>
+        <v>0.1435208272687321</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1198590743649864</v>
+        <v>0.1188398100071549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1045201317764271</v>
+        <v>0.1092744850876889</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04111305603991576</v>
+        <v>0.04111305603991577</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04106677845705861</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02474651389487719</v>
+        <v>0.02621382199499937</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03056006324792021</v>
+        <v>0.02911533948360192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03182951415668032</v>
+        <v>0.0306889515575565</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06199988111049295</v>
+        <v>0.06485962102792096</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05565302965719671</v>
+        <v>0.05547621006030447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05461682190597173</v>
+        <v>0.05284530452229805</v>
       </c>
     </row>
     <row r="16">
@@ -922,10 +922,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4529</v>
+        <v>3977</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3989</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="8">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9863</v>
+        <v>10230</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9361</v>
+        <v>8985</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22074</v>
+        <v>22085</v>
       </c>
     </row>
     <row r="11">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27708</v>
+        <v>27661</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22626</v>
+        <v>21949</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43911</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="12">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4604</v>
+        <v>4412</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9868</v>
+        <v>10115</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17693</v>
+        <v>18322</v>
       </c>
     </row>
     <row r="15">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23014</v>
+        <v>24856</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24437</v>
+        <v>24229</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39411</v>
+        <v>41204</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17188</v>
+        <v>18207</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23641</v>
+        <v>22524</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46731</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>43063</v>
+        <v>45049</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43053</v>
+        <v>42916</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>80186</v>
+        <v>77585</v>
       </c>
     </row>
     <row r="20">
